--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1870.296977921646</v>
+        <v>1824.899659681731</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.62407651846028</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.04148483524234</v>
+        <v>15.23250213508452</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.58438623842279</v>
+        <v>9.361415491259855</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1664.050000000006</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.08</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -923,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -984,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.35124120223184</v>
+        <v>19.35124120223184</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>26.81550631967969</v>
       </c>
     </row>
     <row r="5">
@@ -1000,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1008,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.91835541786301</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>32.7338617375427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.90513640446556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1032,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.7126566934917</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.48634521059829</v>
+        <v>41.34615423506322</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1103,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1117,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1131,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1145,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1156,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1170,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1184,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1198,13 +1143,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1212,13 +1157,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1229,10 +1174,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1240,13 +1185,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1254,13 +1199,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1268,13 +1213,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1282,13 +1227,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="n">
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1299,12 +1244,68 @@
         <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1407,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -1418,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.645</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1429,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>175.91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1440,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.005</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1451,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>178.63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1462,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3750000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -1473,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103.0400000000008</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -1484,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9250000000008</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
@@ -1495,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105.4350000000008</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
@@ -1506,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.7050000000008</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1517,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1528,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1539,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1550,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1561,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1572,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
@@ -1583,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
@@ -1594,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
@@ -1605,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
@@ -1616,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
@@ -1627,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>185.7349999999998</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
@@ -1638,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2649999999998</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
@@ -1649,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>198.1249999999998</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30">
@@ -1660,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.6049999999998</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
@@ -1671,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.9049999999998</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>101.3750000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1693,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>103.0400000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1704,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>103.9250000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1715,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>105.4350000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1726,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>105.7050000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1737,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>167.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1748,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>168.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1759,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>175.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1770,7 +1771,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>167.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1781,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>178.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1792,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>185.7349999999998</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43">
@@ -1803,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>184.2649999999998</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44">
@@ -1814,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>198.1249999999998</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
@@ -1825,7 +1826,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>195.6049999999998</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
@@ -1836,7 +1837,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>190.9049999999998</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.375000000000796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1894,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.040000000000802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1905,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3.925000000000807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1916,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.435000000000798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1927,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.705000000000794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1938,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>67.72000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1949,7 +1950,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>68.64500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1960,7 +1961,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1971,7 +1972,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>67.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1982,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>78.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1993,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.73499999999979</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -2004,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>84.26499999999979</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2015,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>98.12499999999977</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -2026,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>95.60499999999979</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2037,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>90.90499999999977</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2084,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2095,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2106,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2117,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2128,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2139,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2150,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2161,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2172,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2183,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2194,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2205,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2216,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2227,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2238,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2304,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2326,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2337,7 +2338,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2348,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,10 +2500,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2510,10 +2511,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2524,7 +2525,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2535,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2546,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2554,10 +2555,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2568,7 +2569,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2579,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2590,7 +2591,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2601,20 +2602,9 @@
         <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
